--- a/职场/2020计划.xlsx
+++ b/职场/2020计划.xlsx
@@ -41,6 +41,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>网络技术基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket，UDP，TCP/IP，HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webrtc，pjsip，Ffmpeg，Live555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h264，h265，Opus，VP8，mediacodec，SVC，自适应码率，超分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编解码原理与使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtp/rtcp，RTMP，RTSP，SIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频裁剪，合成，美颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android，iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105（天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两客户端实现点对点通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划(2020)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base：40+，package：60+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>23种设计模式，架构模式（MVP、MVVM、组件化、层级化、插件化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,107 +141,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络技术基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket，UDP，TCP/IP，HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>webrtc，pjsip，Ffmpeg，Live555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h264，h265，Opus，VP8，mediacodec，SVC，自适应码率，超分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编解码原理与使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传输协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rtp/rtcp，RTMP，RTSP，SIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NS，VAD，AEC，AGC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频裁剪，合成，美颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延时，内存分析，Qos，QoE，采集、渲染优化，FEC，JB，CPU/GPU结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞品分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android，iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105（天）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base：40+，package：60+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两客户端实现点对点通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划(2020)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声网SDK，即构SDK，腾讯云SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务项</t>
+    <t>延时，内存分析，Qos，QoE，采集、渲染优化，FEC，JB，CPU/GPU结合，PLC，ARQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声网SDK，即构SDK，腾讯云SDK，hi 流云SDK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,11 +202,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,6 +215,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,32 +515,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -548,27 +551,27 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,76 +579,76 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/职场/2020计划.xlsx
+++ b/职场/2020计划.xlsx
@@ -33,19 +33,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设计模式与架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络技术基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket，UDP，TCP/IP，HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编解码原理与使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频裁剪，合成，美颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android，iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105（天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两客户端实现点对点通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划(2020)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base：40+，package：60+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声网SDK，即构SDK，腾讯云SDK，hi 流云SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C/C++，Java，数据结构与算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计模式与架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络技术基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socket，UDP，TCP/IP，HTTP</t>
+    <t>23种设计模式，架构模式（MVP、MVVM、组件化、层级化、插件化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OkHttp，RxJava，基础组件，核心UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,99 +141,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编解码原理与使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传输协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rtp/rtcp，RTMP，RTSP，SIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封装格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频裁剪，合成，美颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞品分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android，iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105（天）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示Demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两客户端实现点对点通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划(2020)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base：40+，package：60+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23种设计模式，架构模式（MVP、MVVM、组件化、层级化、插件化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OkHttp，RxJava，基础组件，核心UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NS，VAD，AEC，AGC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>延时，内存分析，Qos，QoE，采集、渲染优化，FEC，JB，CPU/GPU结合，PLC，ARQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声网SDK，即构SDK，腾讯云SDK，hi 流云SDK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,14 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -515,47 +515,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -563,15 +563,15 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,76 +579,76 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
